--- a/HSR_Stats_1.1.xlsx
+++ b/HSR_Stats_1.1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE47E85F-2379-40ED-BD50-5B29ECD1B648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E188E82-AD56-47C2-92BD-CADE3582B820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -833,7 +833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -917,10 +917,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -928,6 +930,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -945,15 +956,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent2" xfId="1" builtinId="34"/>
@@ -1296,7 +1302,7 @@
   <dimension ref="B1:AA39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1314,28 +1320,28 @@
   <sheetData>
     <row r="1" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="G2" s="92" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="G2" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
-      <c r="M2" s="90" t="s">
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
+      <c r="M2" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="91"/>
+      <c r="N2" s="92"/>
       <c r="O2" s="47"/>
-      <c r="P2" s="90" t="s">
+      <c r="P2" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="91"/>
+      <c r="Q2" s="84"/>
       <c r="T2" s="66" t="s">
         <v>16</v>
       </c>
@@ -1456,7 +1462,6 @@
         <v>9</v>
       </c>
       <c r="Q4" s="54">
-        <f>1242</f>
         <v>1242</v>
       </c>
       <c r="T4" s="69" t="s">
@@ -1522,7 +1527,6 @@
         <v>10</v>
       </c>
       <c r="Q5" s="54">
-        <f>699</f>
         <v>699</v>
       </c>
       <c r="T5" s="69" t="s">
@@ -1584,7 +1588,6 @@
         <v>11</v>
       </c>
       <c r="Q6" s="54">
-        <f>485</f>
         <v>485</v>
       </c>
       <c r="T6" s="69" t="s">
@@ -1628,7 +1631,7 @@
       </c>
       <c r="H7" s="21">
         <f>Q7</f>
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="I7" s="58">
         <f>E4+E10+E16+E21+J22+O22</f>
@@ -1637,14 +1640,13 @@
       <c r="J7" s="61"/>
       <c r="K7" s="37">
         <f t="shared" si="2"/>
-        <v>162.03200000000001</v>
+        <v>150.03200000000001</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="54">
-        <f>12+102</f>
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="T7" s="48" t="s">
         <v>9</v>
@@ -1670,12 +1672,12 @@
       <c r="AA7" s="1"/>
     </row>
     <row r="8" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="89"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="87"/>
       <c r="G8" s="10"/>
       <c r="H8" s="22"/>
       <c r="I8" s="75"/>
@@ -1993,12 +1995,12 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="87"/>
       <c r="G14" s="11" t="s">
         <v>26</v>
       </c>
@@ -2187,24 +2189,24 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="G20" s="87" t="s">
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="87"/>
+      <c r="G20" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="89"/>
-      <c r="L20" s="87" t="s">
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="87"/>
+      <c r="L20" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="89"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="87"/>
       <c r="P20" s="32"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -2493,12 +2495,12 @@
       </c>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B27" s="95" t="s">
+      <c r="B27" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="97"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="90"/>
       <c r="T27" s="4" t="s">
         <v>66</v>
       </c>
@@ -2516,11 +2518,11 @@
       <c r="B28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="83"/>
-      <c r="E28" s="84"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="97"/>
       <c r="T28" s="4" t="s">
         <v>45</v>
       </c>
@@ -2538,11 +2540,11 @@
       <c r="B29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="83"/>
-      <c r="E29" s="84"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="97"/>
       <c r="T29" s="6" t="s">
         <v>44</v>
       </c>
@@ -2560,110 +2562,105 @@
       <c r="B30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="83" t="s">
+      <c r="C30" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="83"/>
-      <c r="E30" s="84"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="97"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="83" t="s">
+      <c r="C31" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="83"/>
-      <c r="E31" s="84"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="97"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="83" t="s">
+      <c r="C32" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="83"/>
-      <c r="E32" s="84"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="97"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="83"/>
-      <c r="E33" s="84"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="97"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="83" t="s">
+      <c r="C34" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="83"/>
-      <c r="E34" s="84"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="97"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="83" t="s">
+      <c r="C35" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="83"/>
-      <c r="E35" s="84"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="97"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="83" t="s">
+      <c r="C36" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="83"/>
-      <c r="E36" s="84"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="97"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="83" t="s">
+      <c r="C37" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="83"/>
-      <c r="E37" s="84"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="97"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="83" t="s">
+      <c r="C38" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="83"/>
-      <c r="E38" s="84"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="97"/>
     </row>
     <row r="39" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="85" t="s">
+      <c r="C39" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="85"/>
-      <c r="E39" s="86"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="99"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="P2:Q2"/>
+  <mergeCells count="21">
+    <mergeCell ref="C32:E32"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="C39:E39"/>
@@ -2679,7 +2676,11 @@
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2718,28 +2719,28 @@
   <sheetData>
     <row r="1" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="G2" s="92" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="G2" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
-      <c r="M2" s="90" t="s">
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
+      <c r="M2" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="91"/>
+      <c r="N2" s="92"/>
       <c r="O2" s="47"/>
-      <c r="P2" s="90" t="s">
+      <c r="P2" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="91"/>
+      <c r="Q2" s="92"/>
       <c r="T2" s="66" t="s">
         <v>16</v>
       </c>
@@ -3074,12 +3075,12 @@
       <c r="AA7" s="1"/>
     </row>
     <row r="8" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="89"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="87"/>
       <c r="G8" s="10"/>
       <c r="H8" s="22"/>
       <c r="I8" s="75"/>
@@ -3397,12 +3398,12 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="87"/>
       <c r="G14" s="11" t="s">
         <v>26</v>
       </c>
@@ -3591,24 +3592,24 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="G20" s="87" t="s">
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="87"/>
+      <c r="G20" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="89"/>
-      <c r="L20" s="87" t="s">
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="87"/>
+      <c r="L20" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="89"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="87"/>
       <c r="P20" s="32"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -3897,12 +3898,12 @@
       </c>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B27" s="95" t="s">
+      <c r="B27" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="97"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="90"/>
       <c r="T27" s="4" t="s">
         <v>66</v>
       </c>
@@ -3920,11 +3921,11 @@
       <c r="B28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="83"/>
-      <c r="E28" s="84"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="97"/>
       <c r="T28" s="4" t="s">
         <v>45</v>
       </c>
@@ -3942,11 +3943,11 @@
       <c r="B29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="83"/>
-      <c r="E29" s="84"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="97"/>
       <c r="T29" s="6" t="s">
         <v>44</v>
       </c>
@@ -3964,104 +3965,116 @@
       <c r="B30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="83" t="s">
+      <c r="C30" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="83"/>
-      <c r="E30" s="84"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="97"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="83" t="s">
+      <c r="C31" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="83"/>
-      <c r="E31" s="84"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="97"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="83" t="s">
+      <c r="C32" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="83"/>
-      <c r="E32" s="84"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="97"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="83"/>
-      <c r="E33" s="84"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="97"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="83" t="s">
+      <c r="C34" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="83"/>
-      <c r="E34" s="84"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="97"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="83" t="s">
+      <c r="C35" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="83"/>
-      <c r="E35" s="84"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="97"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="83" t="s">
+      <c r="C36" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="83"/>
-      <c r="E36" s="84"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="97"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="83" t="s">
+      <c r="C37" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="83"/>
-      <c r="E37" s="84"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="97"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="83" t="s">
+      <c r="C38" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="83"/>
-      <c r="E38" s="84"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="97"/>
     </row>
     <row r="39" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="85" t="s">
+      <c r="C39" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="85"/>
-      <c r="E39" s="86"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="C28:E28"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="C38:E38"/>
@@ -4072,18 +4085,6 @@
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C7 C10:C13 C16:C19 C22:C25 H22:H25 M22:M25" xr:uid="{E750D7EE-99B4-4A54-BC8C-1029105D1884}">
@@ -4110,12 +4111,12 @@
   <sheetData>
     <row r="1" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
       <c r="G2" s="19" t="s">
         <v>16</v>
       </c>
@@ -4478,12 +4479,12 @@
       <c r="X7" s="1"/>
     </row>
     <row r="8" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="89"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="87"/>
       <c r="G8" s="10" t="s">
         <v>22</v>
       </c>
@@ -4809,18 +4810,18 @@
       <c r="X13" s="1"/>
     </row>
     <row r="14" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
-      <c r="G14" s="87" t="s">
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="87"/>
+      <c r="G14" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="89"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="87"/>
       <c r="M14" s="8" t="s">
         <v>44</v>
       </c>
@@ -5038,18 +5039,18 @@
       <c r="X19" s="1"/>
     </row>
     <row r="20" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="G20" s="87" t="s">
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="87"/>
+      <c r="G20" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="89"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="87"/>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
